--- a/TennisSimulation/helyezések.xlsx
+++ b/TennisSimulation/helyezések.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\AK_Academy\TennisSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Roger Federer</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Összesen</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -217,9 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,6 +242,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,26 +542,31 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="14"/>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -575,10 +583,18 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(M1/100*L2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -601,10 +617,18 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(M1/100*L3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -627,10 +651,18 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUM(M1/100*L4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -653,10 +685,18 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <f>SUM(M1/100*L5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -678,10 +718,18 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(M1/100*L6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -691,10 +739,18 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUM(M1/100*L7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -710,10 +766,18 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(M1/100*L8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -735,10 +799,18 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUM(M1/100*L9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>7</v>
       </c>
@@ -751,12 +823,21 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <f>SUM(L2:L9)</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUM(M2:M9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -778,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>5</v>
       </c>
@@ -793,179 +874,179 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="14"/>
       <c r="G18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>8</v>
       </c>
-      <c r="E19" s="7">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
-        <f>SUM(D19:F19)</f>
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:G26" si="0">SUM(D19:F19)</f>
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(D20:F20)</f>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <f>SUM(D21:F21)</f>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <v>4</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="10">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>8</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>2</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <f>SUM(D22:F22)</f>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="10">
-        <f>SUM(D23:F23)</f>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <f>SUM(D24:F24)</f>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4">
-        <v>4</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <f>SUM(D25:F25)</f>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>8</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="13">
-        <v>4</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
-        <f>SUM(D26:F26)</f>
+      <c r="D26" s="12">
+        <v>4</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
